--- a/StructureDefinition-SzLabSpecimen.xlsx
+++ b/StructureDefinition-SzLabSpecimen.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://192.168.10.200:3447/fhir/StructureDefinition/SzLabSpecimen</t>
+    <t>http://172.209.216.154:3447/fhir/StructureDefinition/SzLabSpecimen</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T11:11:31+00:00</t>
+    <t>2025-07-14T08:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Ministry of Health Eswatini (https://192.168.10.200:3447, eswatinihie@moh.gov.sz)</t>
+    <t>Ministry of Health Eswatini (https://172.209.216.154:3447, eswatinihie@moh.gov.sz)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -556,7 +556,7 @@
     <t>Specimen.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://192.168.10.200:3447/fhir/StructureDefinition/SzPatient)
+    <t xml:space="preserve">Reference(http://172.209.216.154:3447/fhir/StructureDefinition/SzPatient)
 </t>
   </si>
   <si>
@@ -708,7 +708,7 @@
     <t>Specimen.collection.collector</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://192.168.10.200:3447/fhir/StructureDefinition/SzPractitioner)
+    <t xml:space="preserve">Reference(http://172.209.216.154:3447/fhir/StructureDefinition/SzPractitioner)
 </t>
   </si>
   <si>
@@ -1430,7 +1430,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="62.0859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="63.0859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-SzLabSpecimen.xlsx
+++ b/StructureDefinition-SzLabSpecimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-14T08:08:58+00:00</t>
+    <t>2025-07-16T14:06:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzLabSpecimen.xlsx
+++ b/StructureDefinition-SzLabSpecimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T14:06:30+00:00</t>
+    <t>2025-08-01T12:25:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzLabSpecimen.xlsx
+++ b/StructureDefinition-SzLabSpecimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T12:25:19+00:00</t>
+    <t>2025-09-08T12:30:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzLabSpecimen.xlsx
+++ b/StructureDefinition-SzLabSpecimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T12:30:01+00:00</t>
+    <t>2025-09-09T15:13:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzLabSpecimen.xlsx
+++ b/StructureDefinition-SzLabSpecimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T15:13:38+00:00</t>
+    <t>2025-09-10T08:40:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzLabSpecimen.xlsx
+++ b/StructureDefinition-SzLabSpecimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T08:40:27+00:00</t>
+    <t>2025-09-10T10:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzLabSpecimen.xlsx
+++ b/StructureDefinition-SzLabSpecimen.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T10:05:20+00:00</t>
+    <t>2025-09-19T08:18:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
